--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A4BB58-EC3D-4F3D-BAAF-B6650465CDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D273F3F-CBE8-4AB1-8A8B-8DDE437FAD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{C54E9027-BF9A-4CDB-A7C0-CE170597A68A}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12240" xr2:uid="{C54E9027-BF9A-4CDB-A7C0-CE170597A68A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>my name is</t>
+  </si>
+  <si>
+    <t>sai dileep G</t>
   </si>
 </sst>
 </file>
@@ -379,15 +382,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7555CE05-E278-4C65-85A8-AF871AD02FFB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
